--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Mixed_Water_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Ocean_Mixed_Water_mass_flows.xlsx
@@ -472,31 +472,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>6.56751181575176E-14</v>
+        <v>1.256328721605063E-14</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.363384410114711E-11</v>
+        <v>6.433968532939948E-12</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.579152787927456E-11</v>
+        <v>3.020832027309992E-12</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.749113697288578E-13</v>
+        <v>3.345957855737681E-14</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.638820591417666E-15</v>
+        <v>5.047917983504061E-16</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>7.551178952269365E-06</v>
+        <v>1.824986969640542E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -671,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.915933672447413E-11</v>
+        <v>9.46412205480233E-12</v>
       </c>
       <c r="G7">
-        <v>0.01815674737884022</v>
+        <v>0.004388166084645646</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0002011092009673028</v>
+        <v>4.860455215802391E-05</v>
       </c>
       <c r="J7">
-        <v>4.835030261675104E-05</v>
+        <v>1.168541664970464E-05</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>5.718748837107239E-11</v>
+        <v>1.042267987870335E-12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.493717064125464E-05</v>
+        <v>1.183509472265775E-06</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.615320842169222E-10</v>
+        <v>1.387926862542485E-11</v>
       </c>
       <c r="J12">
-        <v>3.96727512232075E-08</v>
+        <v>7.230539365951427E-10</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -890,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>9.121189029085814E-14</v>
+        <v>1.146548775147916E-13</v>
       </c>
       <c r="D13">
-        <v>6.75980865373609E-14</v>
+        <v>8.49719297282473E-14</v>
       </c>
       <c r="E13">
-        <v>3.862763244874089E-07</v>
+        <v>4.855558253396559E-07</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.214614995291494E-12</v>
+        <v>1.52679144208826E-12</v>
       </c>
       <c r="J13">
-        <v>1.237573265587737E-10</v>
+        <v>1.555650373312833E-10</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1.002892680500771E-14</v>
+        <v>1.340545739457292E-14</v>
       </c>
       <c r="D14">
-        <v>2.97301704801843E-14</v>
+        <v>3.973969911780541E-14</v>
       </c>
       <c r="E14">
-        <v>3.642806827125062E-06</v>
+        <v>4.869263946896141E-06</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.335493085956149E-13</v>
+        <v>1.785125767952804E-13</v>
       </c>
       <c r="J14">
-        <v>7.893159359126317E-11</v>
+        <v>1.055062157244061E-10</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.343274426753809E-23</v>
+        <v>1.289102725666846E-37</v>
       </c>
       <c r="D15">
-        <v>1.094407685998549E-21</v>
+        <v>3.248249574839597E-36</v>
       </c>
       <c r="E15">
-        <v>1.438852869136716E-11</v>
+        <v>4.270577847930307E-26</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.783682621398297E-22</v>
+        <v>1.716622137830005E-36</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.45408507974167E-18</v>
+        <v>1.3219918090551E-32</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0001993211073470876</v>
+        <v>0.0002547208437736293</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.055961239568917E-07</v>
+        <v>1.157299454546695E-06</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01061696693665136</v>
+        <v>0.0135678695167558</v>
       </c>
       <c r="J17">
-        <v>0.5532420278251532</v>
+        <v>0.7070113045943595</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1080,16 +1080,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>2.235922791728146E-05</v>
+        <v>2.844516828399762E-05</v>
       </c>
       <c r="D18">
-        <v>6.628344959748387E-07</v>
+        <v>8.43250887382852E-07</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.78800806119853E-07</v>
+        <v>4.81906294620537E-07</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001190978650913551</v>
+        <v>0.001515150177511291</v>
       </c>
       <c r="J18">
-        <v>0.1213601413476597</v>
+        <v>0.1543930611725542</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1118,16 +1118,16 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.507112298545188E-06</v>
+        <v>3.351199054811178E-06</v>
       </c>
       <c r="D19">
-        <v>2.972876036536613E-07</v>
+        <v>3.973774676743994E-07</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.64264964655081E-06</v>
+        <v>4.869045578697409E-06</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0001335429485336702</v>
+        <v>0.0001785037723130402</v>
       </c>
       <c r="J19">
-        <v>0.07892817326379808</v>
+        <v>0.1055014646903124</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>1.085818648964265E-14</v>
+        <v>3.222756939643565E-29</v>
       </c>
       <c r="D20">
-        <v>1.094407728952536E-14</v>
+        <v>3.248249702328896E-29</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.438852869248338E-11</v>
+        <v>4.270577848261607E-26</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.783682846583132E-13</v>
+        <v>1.716622204665843E-27</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.454085071448539E-09</v>
+        <v>1.321991806593662E-23</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.00677608157065216</v>
+        <v>0.004410849679081186</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>6.406604529069686E-05</v>
+        <v>2.692645902759782E-08</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>7.592213934286772E-09</v>
+        <v>3.804524440595465E-09</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.351889649899573E-10</v>
+        <v>3.237892007881076E-10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5055913129729258</v>
+        <v>0.698051099982766</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.1145646439078586</v>
+        <v>0.1536599911639926</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.07796801226265379</v>
+        <v>0.105366846483339</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.577152975969616E-18</v>
+        <v>6.228524882861391E-19</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.050925798727235E-11</v>
+        <v>3.720554016690005E-14</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.01163767649624987</v>
+        <v>3.943136437198241E-05</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>6.004823405672407E-09</v>
+        <v>1.840849088433856E-11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>8.42031971452783E-12</v>
+        <v>2.277864254506563E-12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.096511258908762E-12</v>
+        <v>3.168714020126818E-13</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4.454685068853371E-18</v>
+        <v>1.322169888430996E-32</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.04024541246456402</v>
+        <v>0.01839356073783827</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.008009342033805463</v>
+        <v>0.002277306266979654</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.001096508192397393</v>
+        <v>0.0003168703374407138</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>4.454685241998093E-09</v>
+        <v>1.322169939821102E-23</v>
       </c>
     </row>
     <row r="61" spans="1:6">
